--- a/tests/sample/merged_cells.xlsx
+++ b/tests/sample/merged_cells.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>A1</t>
   </si>
@@ -33,9 +33,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
   </si>
   <si>
     <t>D18</t>
-  </si>
-  <si>
-    <t>E18</t>
   </si>
 </sst>
 </file>
@@ -240,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -343,13 +337,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -368,6 +388,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1690,7 +1722,7 @@
   <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="7.625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1713,212 +1745,210 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="19" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
       <c r="E13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -1926,25 +1956,25 @@
     </row>
     <row r="18" spans="1:5" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="E18" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B4:D13"/>
     <mergeCell ref="C16:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
